--- a/data/trans_orig/P23_1_R_2016_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P23_1_R_2016_2023-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>97180</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>80318</v>
+        <v>80121</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>113774</v>
+        <v>113408</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3308118703184204</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2734121045622358</v>
+        <v>0.2727405823967518</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3873018605529491</v>
+        <v>0.3860554733251974</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>64</v>
@@ -763,19 +763,19 @@
         <v>65149</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>52207</v>
+        <v>52320</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>81850</v>
+        <v>81148</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2256622530621462</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1808332355359036</v>
+        <v>0.1812244074903385</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2835099297241575</v>
+        <v>0.2810787745186595</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>150</v>
@@ -784,19 +784,19 @@
         <v>162329</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>140157</v>
+        <v>138029</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>186141</v>
+        <v>185906</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.27869361082111</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2406270812332824</v>
+        <v>0.2369741157502642</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3195750945807511</v>
+        <v>0.3191715902297555</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>196581</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>179987</v>
+        <v>180353</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>213443</v>
+        <v>213640</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6691881296815796</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6126981394470508</v>
+        <v>0.6139445266748026</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7265878954377641</v>
+        <v>0.727259417603248</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>213</v>
@@ -834,19 +834,19 @@
         <v>223554</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>206853</v>
+        <v>207555</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>236496</v>
+        <v>236383</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7743377469378538</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.716490070275842</v>
+        <v>0.7189212254813404</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8191667644640963</v>
+        <v>0.8187755925096616</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>393</v>
@@ -855,19 +855,19 @@
         <v>420135</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>396323</v>
+        <v>396558</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>442307</v>
+        <v>444435</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.72130638917889</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6804249054192488</v>
+        <v>0.6808284097702445</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7593729187667175</v>
+        <v>0.7630258842497357</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>194111</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>172346</v>
+        <v>171610</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>215449</v>
+        <v>216170</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3868973871411386</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3435168153853983</v>
+        <v>0.3420492915656836</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4294291226762898</v>
+        <v>0.4308652516808513</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>129</v>
@@ -980,19 +980,19 @@
         <v>135664</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>114319</v>
+        <v>115296</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>155630</v>
+        <v>153733</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2604493807583808</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.219470506826383</v>
+        <v>0.2213453654572135</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2987802108563105</v>
+        <v>0.2951383005607919</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>310</v>
@@ -1001,19 +1001,19 @@
         <v>329775</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>300935</v>
+        <v>300657</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>364283</v>
+        <v>360018</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3224878276776077</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2942851535422945</v>
+        <v>0.2940127197912059</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3562327530794092</v>
+        <v>0.3520620787151568</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>307600</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>286262</v>
+        <v>285541</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>329365</v>
+        <v>330101</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6131026128588614</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5705708773237103</v>
+        <v>0.5691347483191487</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6564831846146016</v>
+        <v>0.6579507084343164</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>353</v>
@@ -1051,19 +1051,19 @@
         <v>385222</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>365256</v>
+        <v>367153</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>406567</v>
+        <v>405590</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7395506192416192</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7012197891436895</v>
+        <v>0.7048616994392078</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7805294931736165</v>
+        <v>0.7786546345427864</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>646</v>
@@ -1072,19 +1072,19 @@
         <v>692822</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>658314</v>
+        <v>662579</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>721662</v>
+        <v>721940</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6775121723223924</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.643767246920591</v>
+        <v>0.6479379212848433</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7057148464577057</v>
+        <v>0.7059872802087942</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>88971</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>74617</v>
+        <v>74480</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>104901</v>
+        <v>105047</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.279285430880761</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2342290152260165</v>
+        <v>0.2337993355645512</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3292915897662745</v>
+        <v>0.3297518800901626</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>77</v>
@@ -1197,19 +1197,19 @@
         <v>75111</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>60686</v>
+        <v>60374</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>88943</v>
+        <v>91447</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2233378091310495</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1804469682756465</v>
+        <v>0.1795194360348715</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2644688865826146</v>
+        <v>0.2719137509629061</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>170</v>
@@ -1218,19 +1218,19 @@
         <v>164081</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>143727</v>
+        <v>142699</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>184679</v>
+        <v>185614</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2505536613399983</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2194727449067849</v>
+        <v>0.2179032872621234</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2820069123093442</v>
+        <v>0.2834347361663931</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>229594</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>213664</v>
+        <v>213518</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>243948</v>
+        <v>244085</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7207145691192389</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6707084102337254</v>
+        <v>0.6702481199098371</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7657709847739838</v>
+        <v>0.7662006644354488</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>255</v>
@@ -1268,19 +1268,19 @@
         <v>261198</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>247366</v>
+        <v>244862</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>275623</v>
+        <v>275935</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7766621908689505</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7355311134173855</v>
+        <v>0.7280862490370933</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8195530317243536</v>
+        <v>0.8204805639651285</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>497</v>
@@ -1289,19 +1289,19 @@
         <v>490793</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>470195</v>
+        <v>469260</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>511147</v>
+        <v>512175</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7494463386600017</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7179930876906558</v>
+        <v>0.7165652638336067</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.780527255093215</v>
+        <v>0.7820967127378766</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>130773</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>111796</v>
+        <v>112405</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>149906</v>
+        <v>151310</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3534761373020746</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3021818177876277</v>
+        <v>0.3038255914368451</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4051914032411266</v>
+        <v>0.408985881788058</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>88</v>
@@ -1414,19 +1414,19 @@
         <v>95584</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>78583</v>
+        <v>79275</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>113007</v>
+        <v>113898</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2476290981335944</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2035848014283718</v>
+        <v>0.2053764635622705</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2927644870298787</v>
+        <v>0.2950735757981188</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>209</v>
@@ -1435,19 +1435,19 @@
         <v>226358</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>201910</v>
+        <v>197757</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>250305</v>
+        <v>250707</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2994301402364294</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2670904190859436</v>
+        <v>0.2615959595666956</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3311076674916069</v>
+        <v>0.3316396172157747</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>239191</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>220058</v>
+        <v>218654</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>258168</v>
+        <v>257559</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6465238626979254</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5948085967588734</v>
+        <v>0.5910141182119422</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6978181822123722</v>
+        <v>0.6961744085631548</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>269</v>
@@ -1485,19 +1485,19 @@
         <v>290414</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>272991</v>
+        <v>272100</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>307415</v>
+        <v>306723</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7523709018664055</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7072355129701215</v>
+        <v>0.7049264242018812</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7964151985716288</v>
+        <v>0.7946235364377295</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>502</v>
@@ -1506,19 +1506,19 @@
         <v>529604</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>505657</v>
+        <v>505255</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>554052</v>
+        <v>558205</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7005698597635706</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6688923325083929</v>
+        <v>0.6683603827842254</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7329095809140563</v>
+        <v>0.7384040404333047</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>79862</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>66234</v>
+        <v>65509</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>95873</v>
+        <v>94939</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3780945182450879</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3135787132479846</v>
+        <v>0.3101439252826356</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4538986861196889</v>
+        <v>0.4494772981279086</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>60</v>
@@ -1631,19 +1631,19 @@
         <v>56643</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>43931</v>
+        <v>44816</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>69908</v>
+        <v>70532</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.259132262533318</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2009772397361512</v>
+        <v>0.205024298595553</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3198196338977598</v>
+        <v>0.3226739430806057</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>137</v>
@@ -1652,19 +1652,19 @@
         <v>136504</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>117495</v>
+        <v>116842</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>156822</v>
+        <v>156677</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3175940094257694</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2733652938066553</v>
+        <v>0.2718472669696262</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3648663205498276</v>
+        <v>0.3645271940575743</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>131359</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>115348</v>
+        <v>116282</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>144987</v>
+        <v>145712</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6219054817549121</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5461013138803108</v>
+        <v>0.5505227018720918</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6864212867520153</v>
+        <v>0.6898560747173647</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>163</v>
@@ -1702,19 +1702,19 @@
         <v>161944</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>148679</v>
+        <v>148055</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>174656</v>
+        <v>173771</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.740867737466682</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6801803661022403</v>
+        <v>0.6773260569193946</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7990227602638493</v>
+        <v>0.7949757014044472</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>298</v>
@@ -1723,19 +1723,19 @@
         <v>293304</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>272986</v>
+        <v>273131</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>312313</v>
+        <v>312966</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6824059905742306</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6351336794501722</v>
+        <v>0.6354728059424254</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7266347061933446</v>
+        <v>0.7281527330303736</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>84320</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>69442</v>
+        <v>70185</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>100586</v>
+        <v>99849</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3204578931619897</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2639155092806088</v>
+        <v>0.2667394824002399</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3822768101211552</v>
+        <v>0.3794770113517948</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>64</v>
@@ -1848,19 +1848,19 @@
         <v>65029</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>52717</v>
+        <v>52300</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>80678</v>
+        <v>79681</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2381028922971559</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1930209916873011</v>
+        <v>0.1914957717620999</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2953977624105537</v>
+        <v>0.2917489688616332</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>145</v>
@@ -1869,19 +1869,19 @@
         <v>149349</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>130599</v>
+        <v>129733</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>170221</v>
+        <v>170676</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2785131109698465</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2435457950422693</v>
+        <v>0.2419311447384426</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3174347802389604</v>
+        <v>0.3182847470012505</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>178803</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>162537</v>
+        <v>163274</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>193681</v>
+        <v>192938</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6795421068380103</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6177231898788448</v>
+        <v>0.6205229886482052</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7360844907193913</v>
+        <v>0.7332605175997606</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>199</v>
@@ -1919,19 +1919,19 @@
         <v>208086</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>192437</v>
+        <v>193434</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>220398</v>
+        <v>220815</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.761897107702844</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7046022375894462</v>
+        <v>0.7082510311383665</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8069790083126989</v>
+        <v>0.8085042282379</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>377</v>
@@ -1940,19 +1940,19 @@
         <v>386889</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>366017</v>
+        <v>365562</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>405639</v>
+        <v>406505</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7214868890301536</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6825652197610396</v>
+        <v>0.681715252998749</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7564542049577305</v>
+        <v>0.7580688552615572</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>180892</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>158484</v>
+        <v>154881</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>206047</v>
+        <v>205256</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2759654987457693</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2417811196831259</v>
+        <v>0.236283862022689</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3143426858358935</v>
+        <v>0.3131358463617273</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>144</v>
@@ -2065,19 +2065,19 @@
         <v>149763</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>126244</v>
+        <v>128006</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>171320</v>
+        <v>171506</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2172563256039463</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1831378004157501</v>
+        <v>0.1856944819323434</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2485278082316943</v>
+        <v>0.2487977822477772</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>298</v>
@@ -2086,19 +2086,19 @@
         <v>330655</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>295587</v>
+        <v>296980</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>360776</v>
+        <v>367696</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2458719796617659</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2197957392284115</v>
+        <v>0.2208316838567917</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.268270091173673</v>
+        <v>0.273415279952031</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>474594</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>449439</v>
+        <v>450230</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>497002</v>
+        <v>500605</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7240345012542307</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6856573141641065</v>
+        <v>0.6868641536382729</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7582188803168741</v>
+        <v>0.763716137977311</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>500</v>
@@ -2136,19 +2136,19 @@
         <v>539576</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>518019</v>
+        <v>517833</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>563095</v>
+        <v>561333</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7827436743960537</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7514721917683062</v>
+        <v>0.7512022177522228</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.81686219958425</v>
+        <v>0.8143055180676566</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>925</v>
@@ -2157,19 +2157,19 @@
         <v>1014170</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>984049</v>
+        <v>977129</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1049238</v>
+        <v>1047845</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.754128020338234</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.731729908826327</v>
+        <v>0.726584720047969</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7802042607715886</v>
+        <v>0.7791683161432084</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>234285</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>210291</v>
+        <v>207607</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>260763</v>
+        <v>259656</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3009122642763729</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2700948734342442</v>
+        <v>0.2666472364566511</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3349204816519537</v>
+        <v>0.3334987460455714</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>195</v>
@@ -2282,19 +2282,19 @@
         <v>204631</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>180531</v>
+        <v>182098</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>230655</v>
+        <v>229997</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2476869389331577</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2185164296894827</v>
+        <v>0.2204129228530847</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2791863836596647</v>
+        <v>0.2783910009526215</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>415</v>
@@ -2303,19 +2303,19 @@
         <v>438916</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>401465</v>
+        <v>403013</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>476826</v>
+        <v>476230</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.27351048362383</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2501728788214276</v>
+        <v>0.2511377359283793</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2971343100593209</v>
+        <v>0.2967627988843924</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>544298</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>517820</v>
+        <v>518927</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>568292</v>
+        <v>570976</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6990877357236271</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6650795183480462</v>
+        <v>0.6665012539544285</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7299051265657557</v>
+        <v>0.733352763543349</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>560</v>
@@ -2353,19 +2353,19 @@
         <v>621536</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>595512</v>
+        <v>596170</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>645636</v>
+        <v>644069</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7523130610668424</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7208136163403357</v>
+        <v>0.7216089990473784</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7814835703105174</v>
+        <v>0.7795870771469153</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1090</v>
@@ -2374,19 +2374,19 @@
         <v>1165834</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1127924</v>
+        <v>1128520</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1203285</v>
+        <v>1201737</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.72648951637617</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.702865689940679</v>
+        <v>0.7032372011156076</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7498271211785724</v>
+        <v>0.7488622640716207</v>
       </c>
     </row>
     <row r="27">
@@ -2478,19 +2478,19 @@
         <v>1090392</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1032901</v>
+        <v>1034006</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1147265</v>
+        <v>1146673</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3214207709242772</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3044736486004316</v>
+        <v>0.3047993307146093</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3381855192489536</v>
+        <v>0.3380109153811833</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>821</v>
@@ -2499,19 +2499,19 @@
         <v>847575</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>795408</v>
+        <v>793285</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>902260</v>
+        <v>901754</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2394886124978119</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.224748469136502</v>
+        <v>0.2241485366542341</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2549403789690229</v>
+        <v>0.2547974147981649</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1834</v>
@@ -2520,19 +2520,19 @@
         <v>1937967</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1854040</v>
+        <v>1866061</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2011178</v>
+        <v>2025133</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2795877382340072</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2674796161425477</v>
+        <v>0.2692139544330885</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2901497687024669</v>
+        <v>0.2921630909554056</v>
       </c>
     </row>
     <row r="29">
@@ -2549,19 +2549,19 @@
         <v>2302022</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2245149</v>
+        <v>2245741</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2359513</v>
+        <v>2358408</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6785792290757228</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6618144807510465</v>
+        <v>0.6619890846188168</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6955263513995684</v>
+        <v>0.6952006692853907</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2512</v>
@@ -2570,19 +2570,19 @@
         <v>2691528</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2636843</v>
+        <v>2637349</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2743695</v>
+        <v>2745818</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7605113875021881</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7450596210309774</v>
+        <v>0.745202585201835</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7752515308634981</v>
+        <v>0.7758514633457659</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4728</v>
@@ -2591,19 +2591,19 @@
         <v>4993550</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4920339</v>
+        <v>4906384</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5077477</v>
+        <v>5065456</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7204122617659928</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.709850231297533</v>
+        <v>0.7078369090445944</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7325203838574524</v>
+        <v>0.7307860455669115</v>
       </c>
     </row>
     <row r="30">
@@ -2939,19 +2939,19 @@
         <v>65118</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>49884</v>
+        <v>51651</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>81665</v>
+        <v>81243</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2042302782203511</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1564514450359575</v>
+        <v>0.1619935496007781</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2561286598284722</v>
+        <v>0.2548026424060905</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>105</v>
@@ -2960,19 +2960,19 @@
         <v>60258</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>48515</v>
+        <v>50389</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>72549</v>
+        <v>72479</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1906522427492384</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1534990750894068</v>
+        <v>0.1594292418470244</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2295414646353542</v>
+        <v>0.2293193132173646</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>171</v>
@@ -2981,19 +2981,19 @@
         <v>125376</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>107132</v>
+        <v>107118</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>145694</v>
+        <v>141799</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1974710364828789</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1687370971890238</v>
+        <v>0.1687144077382632</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2294727250855837</v>
+        <v>0.2233383603056057</v>
       </c>
     </row>
     <row r="5">
@@ -3010,19 +3010,19 @@
         <v>253727</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>237180</v>
+        <v>237602</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>268961</v>
+        <v>267194</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7957697217796489</v>
+        <v>0.795769721779649</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7438713401715276</v>
+        <v>0.7451973575939096</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8435485549640425</v>
+        <v>0.8380064503992221</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>433</v>
@@ -3031,19 +3031,19 @@
         <v>255803</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>243512</v>
+        <v>243582</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>267546</v>
+        <v>265672</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8093477572507616</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.770458535364646</v>
+        <v>0.7706806867826355</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8465009249105933</v>
+        <v>0.8405707581529758</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>698</v>
@@ -3052,19 +3052,19 @@
         <v>509530</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>489212</v>
+        <v>493107</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>527774</v>
+        <v>527788</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8025289635171211</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7705272749144164</v>
+        <v>0.7766616396943945</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8312629028109759</v>
+        <v>0.8312855922617367</v>
       </c>
     </row>
     <row r="6">
@@ -3156,19 +3156,19 @@
         <v>120038</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>97099</v>
+        <v>94854</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>145253</v>
+        <v>144780</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2262101765333897</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1829821905339795</v>
+        <v>0.1787513695175864</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2737273941337297</v>
+        <v>0.2728360493595552</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>115</v>
@@ -3177,19 +3177,19 @@
         <v>89825</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>74893</v>
+        <v>75460</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>104859</v>
+        <v>107647</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1643662572682412</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1370429635435402</v>
+        <v>0.1380805070687555</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.191875490513538</v>
+        <v>0.1969770191105628</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>199</v>
@@ -3198,19 +3198,19 @@
         <v>209863</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>181683</v>
+        <v>184017</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>241387</v>
+        <v>242339</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.194833280500142</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1686718091926542</v>
+        <v>0.1708382645082135</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2240993460349307</v>
+        <v>0.2249834266846414</v>
       </c>
     </row>
     <row r="8">
@@ -3227,19 +3227,19 @@
         <v>410609</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>385394</v>
+        <v>385867</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>433548</v>
+        <v>435793</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7737898234666103</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7262726058662704</v>
+        <v>0.7271639506404444</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8170178094660205</v>
+        <v>0.8212486304824137</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>602</v>
@@ -3248,19 +3248,19 @@
         <v>456669</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>441635</v>
+        <v>438847</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>471601</v>
+        <v>471034</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8356337427317587</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8081245094864615</v>
+        <v>0.8030229808894372</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8629570364564598</v>
+        <v>0.8619194929312446</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>900</v>
@@ -3269,19 +3269,19 @@
         <v>867278</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>835754</v>
+        <v>834802</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>895458</v>
+        <v>893124</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8051667194998581</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7759006539650694</v>
+        <v>0.7750165733153586</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8313281908073458</v>
+        <v>0.8291617354917865</v>
       </c>
     </row>
     <row r="9">
@@ -3373,19 +3373,19 @@
         <v>75247</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>61241</v>
+        <v>61807</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>89135</v>
+        <v>91504</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2381302544827887</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.193806491125899</v>
+        <v>0.1955967757442982</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2820783913195437</v>
+        <v>0.2895775208021115</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>85</v>
@@ -3394,19 +3394,19 @@
         <v>59892</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49061</v>
+        <v>49131</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>73300</v>
+        <v>73511</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.168055761807564</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1376657119140179</v>
+        <v>0.1378598675211231</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2056775929324878</v>
+        <v>0.20626952560039</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>167</v>
@@ -3415,19 +3415,19 @@
         <v>135140</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>116462</v>
+        <v>116391</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>153829</v>
+        <v>154612</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2009884062401844</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1732092460685507</v>
+        <v>0.173103991030001</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2287840068703043</v>
+        <v>0.2299483229485217</v>
       </c>
     </row>
     <row r="11">
@@ -3444,19 +3444,19 @@
         <v>240746</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>226858</v>
+        <v>224489</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>254752</v>
+        <v>254186</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7618697455172112</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7179216086804563</v>
+        <v>0.7104224791978887</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.806193508874101</v>
+        <v>0.804403224255702</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>451</v>
@@ -3465,19 +3465,19 @@
         <v>296489</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>283081</v>
+        <v>282870</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>307320</v>
+        <v>307250</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8319442381924359</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7943224070675121</v>
+        <v>0.7937304743996101</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8623342880859821</v>
+        <v>0.8621401324788769</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>729</v>
@@ -3486,19 +3486,19 @@
         <v>537235</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>518546</v>
+        <v>517763</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>555913</v>
+        <v>555984</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7990115937598158</v>
+        <v>0.7990115937598155</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7712159931296956</v>
+        <v>0.7700516770514783</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8267907539314495</v>
+        <v>0.8268960089699989</v>
       </c>
     </row>
     <row r="12">
@@ -3590,19 +3590,19 @@
         <v>89125</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>68811</v>
+        <v>67981</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>117154</v>
+        <v>114748</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2388487854828465</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1844085656784785</v>
+        <v>0.1821829351940494</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3139628556724959</v>
+        <v>0.3075163145485329</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>80</v>
@@ -3611,19 +3611,19 @@
         <v>72666</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>58060</v>
+        <v>57151</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>90940</v>
+        <v>90987</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1722102952922374</v>
+        <v>0.1722102952922375</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1375966675825363</v>
+        <v>0.135442184257859</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2155167851646049</v>
+        <v>0.2156296445028092</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>139</v>
@@ -3632,19 +3632,19 @@
         <v>161791</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>136326</v>
+        <v>136997</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>192319</v>
+        <v>191338</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2034838797964363</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1714560688569839</v>
+        <v>0.1723004535859268</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.241878659130722</v>
+        <v>0.2406441994706354</v>
       </c>
     </row>
     <row r="14">
@@ -3661,19 +3661,19 @@
         <v>284020</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>255991</v>
+        <v>258397</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>304334</v>
+        <v>305164</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7611512145171535</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6860371443275041</v>
+        <v>0.6924836854514671</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8155914343215216</v>
+        <v>0.8178170648059506</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>519</v>
@@ -3682,19 +3682,19 @@
         <v>349295</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>331021</v>
+        <v>330974</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>363901</v>
+        <v>364810</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8277897047077627</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7844832148353952</v>
+        <v>0.7843703554971908</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8624033324174638</v>
+        <v>0.8645578157421409</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>752</v>
@@ -3703,19 +3703,19 @@
         <v>633316</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>602788</v>
+        <v>603769</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>658781</v>
+        <v>658110</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7965161202035637</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7581213408692778</v>
+        <v>0.7593558005293646</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8285439311430161</v>
+        <v>0.8276995464140733</v>
       </c>
     </row>
     <row r="15">
@@ -3807,19 +3807,19 @@
         <v>39415</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30749</v>
+        <v>30220</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>49839</v>
+        <v>50083</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1916476859244755</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1495080234391649</v>
+        <v>0.1469370813782658</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2423310179946394</v>
+        <v>0.2435193061282944</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>60</v>
@@ -3828,19 +3828,19 @@
         <v>27955</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21048</v>
+        <v>21558</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>34980</v>
+        <v>36438</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1230341978730296</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09263501827330141</v>
+        <v>0.09487806210399384</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1539519651996401</v>
+        <v>0.1603663966692824</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>115</v>
@@ -3849,19 +3849,19 @@
         <v>67370</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>56566</v>
+        <v>55620</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>80740</v>
+        <v>80816</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1556330539855291</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1306744857969014</v>
+        <v>0.1284882348458867</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1865182921756796</v>
+        <v>0.1866938780621688</v>
       </c>
     </row>
     <row r="17">
@@ -3878,19 +3878,19 @@
         <v>166250</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>155826</v>
+        <v>155582</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>174916</v>
+        <v>175445</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8083523140755244</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7576689820053606</v>
+        <v>0.7564806938717059</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8504919765608349</v>
+        <v>0.8530629186217343</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>432</v>
@@ -3899,19 +3899,19 @@
         <v>199260</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>192235</v>
+        <v>190777</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>206167</v>
+        <v>205657</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8769658021269705</v>
+        <v>0.8769658021269703</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8460480348003597</v>
+        <v>0.8396336033307177</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9073649817266984</v>
+        <v>0.9051219378960061</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>656</v>
@@ -3920,19 +3920,19 @@
         <v>365509</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>352139</v>
+        <v>352063</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>376313</v>
+        <v>377259</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8443669460144712</v>
+        <v>0.8443669460144709</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8134817078243203</v>
+        <v>0.8133061219378309</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8693255142030983</v>
+        <v>0.8715117651541133</v>
       </c>
     </row>
     <row r="18">
@@ -4024,19 +4024,19 @@
         <v>69169</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>55619</v>
+        <v>57423</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>82478</v>
+        <v>83173</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2555110085469259</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2054584027553681</v>
+        <v>0.2121226120458622</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3046764832271575</v>
+        <v>0.3072427249397349</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>70</v>
@@ -4045,19 +4045,19 @@
         <v>44982</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>36060</v>
+        <v>35458</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>55675</v>
+        <v>55353</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1705460677890443</v>
+        <v>0.1705460677890442</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.136720274717004</v>
+        <v>0.1344390275167593</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.211090763215365</v>
+        <v>0.2098709580378277</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>158</v>
@@ -4066,19 +4066,19 @@
         <v>114150</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>99379</v>
+        <v>98101</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>130839</v>
+        <v>130972</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.213581505225398</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1859439378629091</v>
+        <v>0.1835528997498971</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2448069289079702</v>
+        <v>0.2450554723105034</v>
       </c>
     </row>
     <row r="20">
@@ -4095,19 +4095,19 @@
         <v>201538</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>188229</v>
+        <v>187534</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>215088</v>
+        <v>213284</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.744488991453074</v>
+        <v>0.7444889914530741</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6953235167728424</v>
+        <v>0.6927572750602651</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.794541597244632</v>
+        <v>0.7878773879541376</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>390</v>
@@ -4116,19 +4116,19 @@
         <v>218768</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>208075</v>
+        <v>208397</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>227690</v>
+        <v>228292</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8294539322109559</v>
+        <v>0.8294539322109555</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7889092367846349</v>
+        <v>0.7901290419621722</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.863279725282996</v>
+        <v>0.8655609724832405</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>673</v>
@@ -4137,19 +4137,19 @@
         <v>420307</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>403618</v>
+        <v>403485</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>435078</v>
+        <v>436356</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7864184947746019</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7551930710920298</v>
+        <v>0.7549445276894966</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8140560621370908</v>
+        <v>0.8164471002501029</v>
       </c>
     </row>
     <row r="21">
@@ -4241,19 +4241,19 @@
         <v>155421</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>130579</v>
+        <v>131997</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>181967</v>
+        <v>183120</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2166364815079285</v>
+        <v>0.2166364815079284</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1820100938008965</v>
+        <v>0.1839867333929166</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2536378182313271</v>
+        <v>0.2552455131069367</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>186</v>
@@ -4262,19 +4262,19 @@
         <v>149649</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>128453</v>
+        <v>129169</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>171074</v>
+        <v>171821</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1948084673114761</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1672166681730214</v>
+        <v>0.1681485045025319</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2226984010069905</v>
+        <v>0.2236708832050649</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>318</v>
@@ -4283,19 +4283,19 @@
         <v>305070</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>273015</v>
+        <v>271555</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>337879</v>
+        <v>336452</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2053495850951066</v>
+        <v>0.2053495850951065</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1837729595482412</v>
+        <v>0.1827898189227894</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2274345277017604</v>
+        <v>0.2264735203990055</v>
       </c>
     </row>
     <row r="23">
@@ -4312,19 +4312,19 @@
         <v>562006</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>535460</v>
+        <v>534307</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>586848</v>
+        <v>585430</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.7833635184920716</v>
+        <v>0.7833635184920714</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7463621817686727</v>
+        <v>0.7447544868930633</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8179899061991033</v>
+        <v>0.8160132666070833</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>771</v>
@@ -4333,19 +4333,19 @@
         <v>618536</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>597111</v>
+        <v>596364</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>639732</v>
+        <v>639016</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8051915326885239</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7773015989930094</v>
+        <v>0.7763291167949352</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8327833318269786</v>
+        <v>0.8318514954974683</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1236</v>
@@ -4354,19 +4354,19 @@
         <v>1180542</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1147733</v>
+        <v>1149160</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1212597</v>
+        <v>1214057</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7946504149048935</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7725654722982398</v>
+        <v>0.7735264796009944</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8162270404517589</v>
+        <v>0.8172101810772108</v>
       </c>
     </row>
     <row r="24">
@@ -4458,19 +4458,19 @@
         <v>208526</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>180011</v>
+        <v>181509</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>232813</v>
+        <v>234910</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.2616620362715545</v>
+        <v>0.2616620362715544</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2258802357052647</v>
+        <v>0.2277608826409798</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2921369052727447</v>
+        <v>0.2947686223324253</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>148</v>
@@ -4479,19 +4479,19 @@
         <v>125254</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>107343</v>
+        <v>107724</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>145685</v>
+        <v>145651</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1506667834079473</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1291222348878482</v>
+        <v>0.129580540122344</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1752432116606898</v>
+        <v>0.1752021576287712</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>338</v>
@@ -4500,19 +4500,19 @@
         <v>333780</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>297656</v>
+        <v>297672</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>368843</v>
+        <v>364875</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2049918799218411</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.182806110017409</v>
+        <v>0.1828160209842499</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2265258367534285</v>
+        <v>0.2240884083521603</v>
       </c>
     </row>
     <row r="26">
@@ -4529,19 +4529,19 @@
         <v>588404</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>564117</v>
+        <v>562020</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>616919</v>
+        <v>615421</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7383379637284456</v>
+        <v>0.7383379637284455</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7078630947272554</v>
+        <v>0.7052313776675747</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7741197642947352</v>
+        <v>0.7722391173590202</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>914</v>
@@ -4550,19 +4550,19 @@
         <v>706077</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>685646</v>
+        <v>685680</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>723988</v>
+        <v>723607</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8493332165920526</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8247567883393101</v>
+        <v>0.8247978423712287</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8708777651121516</v>
+        <v>0.8704194598776558</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1485</v>
@@ -4571,19 +4571,19 @@
         <v>1294482</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1259419</v>
+        <v>1263387</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1330606</v>
+        <v>1330590</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7950081200781589</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7734741632465715</v>
+        <v>0.7759115916478398</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8171938899825911</v>
+        <v>0.8171839790157502</v>
       </c>
     </row>
     <row r="27">
@@ -4675,19 +4675,19 @@
         <v>822060</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>768167</v>
+        <v>768505</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>878540</v>
+        <v>875947</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.232920286400674</v>
+        <v>0.2329202864006739</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2176505075399477</v>
+        <v>0.2177460946047874</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2489232168708154</v>
+        <v>0.2481886344062854</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>849</v>
@@ -4696,19 +4696,19 @@
         <v>630481</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>589467</v>
+        <v>591246</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>670865</v>
+        <v>678133</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1689671944668214</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.157975652036824</v>
+        <v>0.1584522440002269</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1797901128163412</v>
+        <v>0.1817378517229384</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1605</v>
@@ -4717,19 +4717,19 @@
         <v>1452540</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1383567</v>
+        <v>1387153</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1524182</v>
+        <v>1528361</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2000540422870054</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1905545921188131</v>
+        <v>0.1910484833846902</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2099210109401287</v>
+        <v>0.2104965900497094</v>
       </c>
     </row>
     <row r="29">
@@ -4746,19 +4746,19 @@
         <v>2707301</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2650821</v>
+        <v>2653414</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2761194</v>
+        <v>2760856</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.7670797135993259</v>
+        <v>0.7670797135993261</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7510767831291845</v>
+        <v>0.7518113655937145</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7823494924600524</v>
+        <v>0.7822539053952124</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4512</v>
@@ -4767,19 +4767,19 @@
         <v>3100899</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3060515</v>
+        <v>3053247</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3141913</v>
+        <v>3140134</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.8310328055331786</v>
+        <v>0.8310328055331785</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8202098871836587</v>
+        <v>0.8182621482770616</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.842024347963176</v>
+        <v>0.8415477559997731</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7129</v>
@@ -4788,19 +4788,19 @@
         <v>5808200</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5736558</v>
+        <v>5732379</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5877173</v>
+        <v>5873587</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.7999459577129947</v>
+        <v>0.7999459577129948</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7900789890598716</v>
+        <v>0.7895034099502906</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8094454078811869</v>
+        <v>0.8089515166153096</v>
       </c>
     </row>
     <row r="30">
